--- a/supplements_LLM_results.xlsx
+++ b/supplements_LLM_results.xlsx
@@ -2641,10 +2641,8 @@
           <t>menopause</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="U15" t="b">
+        <v>1</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -10841,10 +10839,8 @@
           <t>Menopause symptoms</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="U68" t="b">
+        <v>1</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -16448,10 +16444,8 @@
           <t>Menopause</t>
         </is>
       </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="U105" t="b">
+        <v>1</v>
       </c>
       <c r="V105" t="inlineStr">
         <is>
@@ -38432,10 +38426,8 @@
           <t>Menopause, fatigue, hormonal imbalance, mood regulation</t>
         </is>
       </c>
-      <c r="U251" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="U251" t="b">
+        <v>1</v>
       </c>
       <c r="V251" t="inlineStr">
         <is>
@@ -49115,10 +49107,8 @@
           <t>Menopause</t>
         </is>
       </c>
-      <c r="U321" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="U321" t="b">
+        <v>1</v>
       </c>
       <c r="V321" t="inlineStr">
         <is>
